--- a/ilmoitukset.xlsx
+++ b/ilmoitukset.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,874 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>190 €</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/paijat-hame/Nintendo_Switch_104246749.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>eilen 21:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pelikonsolien korjaus Nintendo Switch XBOX PS4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>49 €</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-savo/Pelikonsolien_korjaus_Nintendo_Switch_XBOX_PS4_77769009.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>eilen 21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nintendo Switch V2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>220 €</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_V2__104243694.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>eilen 19:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ys IX Monstrum Nox Switch</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Ys_IX_Monstrum_Nox_Switch_104238823.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>eilen 18:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelit</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_pelit_104236457.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>eilen 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pelkkä Nintendo Switch -laatikko</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Pelkka_Nintendo_Switch__laatikko_104236081.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>eilen 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Splatoon 2 peli</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Splatoon_2_peli_104235662.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>eilen 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_104232473.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>eilen 16:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nintendo Switch v2 + kotelo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_v2___kotelo_104232449.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>eilen 16:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_switch_104231633.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>eilen 15:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nintendo Switch oled</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kymenlaakso/Nintendo_Switch_oled_104231399.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>eilen 15:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Nintendo switch v2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>280 €</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_switch_v2_104227200.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>eilen 14:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nintendo switch Näyttö: 6,2 tuuman monikosketusta</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/paijat-hame/Nintendo_switch_Naytto_%C2%A06_2_tuuman_monikosketusta_104226917.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>eilen 14:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Nes eu 8-bit</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>95 €</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nes_eu_8_bit_104225713.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>eilen 14:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelikonsoli + 3 Peliä</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>370 €</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_pelikonsoli___3_Pelia_104220917.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>eilen 13:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Nintendo Switch v2 Harmaa 2v takuu</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>270 €</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_v2_Harmaa_2v_takuu_104219102.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>eilen 12:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Games</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Games_104218181.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>eilen 12:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/Nintendo_switch_104216399.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>eilen 11:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Pro Controller /Ohjain - Uusi -</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/Nintendo_Switch_Pro_Controller__Ohjain___Uusi___104211768.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>eilen 10:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hori Nintendo Switch Mario Kart Pro Mini rattiohja</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>52 €</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Hori_Nintendo_Switch_Mario_Kart_Pro_Mini_rattiohja_104238694.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>eilen 09:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ryhmä hau peli (Nintendo switch lite)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Ryhma_hau_peli__Nintendo_switch_lite__104208498.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>eilen 09:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>240 €</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_switch_104208247.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>eilen 09:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>219 €</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Nintendo_Switch_104208224.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>eilen 09:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Dock telakka</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_Dock_telakka_104199328.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14 lok 20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Pikmin 3 Deluxe</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>33 €</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-karjala/Pikmin_3_Deluxe_104198907.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14 lok 19:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite, Animal Crossing New Horizons</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_Switch_Lite__Animal_Crossing_New_Horizons_104196398.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14 lok 18:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Animal Crossing New Horizons (Switchille)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Animal_Crossing_New_Horizons__Switchille__104192012.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14 lok 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nintendo switch v1 setup</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>350 €</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/paijat-hame/Nintendo_switch_v1_setup_104191292.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14 lok 16:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nintendo Switch + 128GB muistikortti</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Nintendo_Switch___128GB_muistikortti_104190601.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14 lok 16:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Marvel Ultimate Alliance 3 Nintendo Switch peli</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Marvel_Ultimate_Alliance_3_Nintendo_Switch_peli_104188710.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14 lok 15:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelit</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_pelit_104180945.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14 lok 12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_104180645.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14 lok 12:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Switch Pro Controller, 45eur</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Switch_Pro_Controller__45eur_104171419.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14 lok 08:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>295 €</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-savo/Nintendo_104171182.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14 lok 08:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Nintendo switch kantokotelo</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>10 €</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/Nintendo_switch_kantokotelo_104171120.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14 lok 08:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nintendo switch Skyrim suojakuori</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/Nintendo_switch_Skyrim_suojakuori_104171106.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14 lok 08:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Pelit</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Pelit_104169587.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14 lok 01:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Irtopelit</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Irtopelit_104169484.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14 lok 01:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mario Strikers Battle League - Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Mario_Strikers_Battle_League___Nintendo_Switch_104168024.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13 lok 22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Nintendo_Switch_Lite_104167029.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13 lok 22:03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ilmoitukset.xlsx
+++ b/ilmoitukset.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,868 +446,8284 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nintendo Switch</t>
+          <t>Nintendo Switch V2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>190 €</t>
+          <t>230 €</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/paijat-hame/Nintendo_Switch_104246749.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_V2_104337726.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>eilen 21:30</t>
+          <t>tänään 19:43</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pelikonsolien korjaus Nintendo Switch XBOX PS4</t>
+          <t>Nintendo Switch Super Mario Maker 2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>49 €</t>
+          <t>40 €</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/pohjois-savo/Pelikonsolien_korjaus_Nintendo_Switch_XBOX_PS4_77769009.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_Switch_Super_Mario_Maker_2_104336674.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>eilen 21:06</t>
+          <t>tänään 19:22</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nintendo Switch V2</t>
+          <t>Pokemon Lets Go Pikachu (Nintendo Switch)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>220 €</t>
+          <t>35 €</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_V2__104243694.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/etela-savo/Pokemon_Lets_Go_Pikachu__Nintendo_Switch__104332269.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>eilen 19:57</t>
+          <t>tänään 17:55</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ys IX Monstrum Nox Switch</t>
+          <t>Fit Adventure Nintendo Switch</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>35 €</t>
+          <t>40 €</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Ys_IX_Monstrum_Nox_Switch_104238823.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/pirkanmaa/Fit_Adventure_Nintendo_Switch_104331220.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>eilen 18:09</t>
+          <t>tänään 17:35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nintendo Switch pelit</t>
+          <t>Nintendo Switch V2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20 €</t>
+          <t>230 €</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_pelit_104236457.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_Switch_V2_104328272.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>eilen 17:22</t>
+          <t>tänään 16:39</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pelkkä Nintendo Switch -laatikko</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>Paper Mario: The Origami King - Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>28 €</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/keski-suomi/Pelkka_Nintendo_Switch__laatikko_104236081.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/uusimaa/Paper_Mario__The_Origami_King___Nintendo_Switch_104327329.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>eilen 17:16</t>
+          <t>tänään 16:22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Splatoon 2 peli</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>20 €</t>
-        </is>
-      </c>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Splatoon_2_peli_104235662.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/kanta-hame/Nintendo_switch_104325640.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>eilen 17:08</t>
+          <t>tänään 15:50</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nintendo Switch</t>
+          <t>Nintendo Switch Animal Crossing edition</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>250 €</t>
+          <t>370 €</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_104232473.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/kymenlaakso/Nintendo_Switch_Animal_Crossing_edition_104321902.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>eilen 16:11</t>
+          <t>tänään 14:37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nintendo Switch v2 + kotelo</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>200 €</t>
-        </is>
-      </c>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_v2___kotelo_104232449.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_switch_104314172.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>eilen 16:11</t>
+          <t>tänään 12:15</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nintendo switch</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>45 €</t>
-        </is>
-      </c>
+          <t>O: Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_switch_104231633.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/pohjois-karjala/O__Nintendo_switch_104313086.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>eilen 15:56</t>
+          <t>tänään 11:55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nintendo Switch oled</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Nintendo Switch Lite</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/kymenlaakso/Nintendo_Switch_oled_104231399.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Lite_104313061.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>eilen 15:53</t>
+          <t>tänään 11:55</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nintendo switch v2</t>
+          <t>Uudenver. Nintendo Switch paketti, ovh. 779</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>280 €</t>
+          <t>450 €</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/pirkanmaa/Nintendo_switch_v2_104227200.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/varsinais-suomi/Uudenver__Nintendo_Switch_paketti__ovh__779_104308517.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>eilen 14:46</t>
+          <t>tänään 10:12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nintendo switch Näyttö: 6,2 tuuman monikosketusta</t>
+          <t>Mario Kart nintendo switch</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>200 €</t>
+          <t>60 €</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/paijat-hame/Nintendo_switch_Naytto_%C2%A06_2_tuuman_monikosketusta_104226917.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/uusimaa/Mario_Kart_nintendo_switch_104307680.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>eilen 14:41</t>
+          <t>tänään 09:47</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nes eu 8-bit</t>
+          <t>Nintendo Switch Labo Variety Kit</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>95 €</t>
+          <t>25 €</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/pohjois-karjala/Nes_eu_8_bit_104225713.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/etela-pohjanmaa/Nintendo_Switch_Labo_Variety_Kit_104305408.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>eilen 14:23</t>
+          <t>tänään 08:33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nintendo switch pelikonsoli + 3 Peliä</t>
+          <t>UUSI Nintendo Switch Labo Vehicle Kit</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>370 €</t>
+          <t>25 €</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Nintendo_switch_pelikonsoli___3_Pelia_104220917.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/uusimaa/UUSI_Nintendo_Switch_Labo_Vehicle_Kit_104305294.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>eilen 13:09</t>
+          <t>tänään 08:29</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nintendo Switch v2 Harmaa 2v takuu</t>
+          <t>Nintendo switch lite ja peli</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>270 €</t>
+          <t>100 €</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_v2_Harmaa_2v_takuu_104219102.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/kymenlaakso/Nintendo_switch_lite_ja_peli_104304271.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>eilen 12:42</t>
+          <t>tänään 07:18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nintendo Switch Games</t>
+          <t>PowerA Enhanced Wireless Nintendo Switch ohjain</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>30 €</t>
+          <t>59 €</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Games_104218181.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/lappi/PowerA_Enhanced_Wireless_Nintendo_Switch_ohjain_104330322.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>eilen 12:27</t>
+          <t>tänään 07:17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nintendo switch</t>
+          <t>Nintendo Switch</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>250 €</t>
+          <t>190 €</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/kanta-hame/Nintendo_switch_104216399.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_104298302.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>eilen 11:59</t>
+          <t>eilen 21:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nintendo Switch Pro Controller /Ohjain - Uusi -</t>
+          <t>Crash Bandicoot 4 - It's About Time</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>40 €</t>
+          <t>35 €</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/kanta-hame/Nintendo_Switch_Pro_Controller__Ohjain___Uusi___104211768.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/pirkanmaa/Crash_Bandicoot_4___It_s_About_Time_104297732.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>eilen 10:39</t>
+          <t>eilen 20:49</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hori Nintendo Switch Mario Kart Pro Mini rattiohja</t>
+          <t>Nintendo Switch ja 3 peliä</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>52 €</t>
+          <t>325 €</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Hori_Nintendo_Switch_Mario_Kart_Pro_Mini_rattiohja_104238694.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_ja_3_pelia_104292609.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>eilen 09:58</t>
+          <t>eilen 19:17</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ryhmä hau peli (Nintendo switch lite)</t>
+          <t>Nintendo switch +kotelo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20 €</t>
+          <t>250 €</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Ryhma_hau_peli__Nintendo_switch_lite__104208498.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch__kotelo_104292112.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>eilen 09:22</t>
+          <t>eilen 19:09</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nintendo switch</t>
+          <t>Nintendo Switch + Mario Kart 8 deluxe</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>240 €</t>
+          <t>200 €</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/pirkanmaa/Nintendo_switch_104208247.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_Switch___Mario_Kart_8_deluxe_104290525.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>eilen 09:13</t>
+          <t>eilen 18:46</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nintendo Switch</t>
+          <t>Nintendo Switch v2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>219 €</t>
+          <t>350 €</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/keski-suomi/Nintendo_Switch_104208224.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_v2_104288249.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>eilen 09:12</t>
+          <t>eilen 18:14</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nintendo Switch Dock telakka</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>35 €</t>
-        </is>
-      </c>
+          <t>Nintendo switch pelejä</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_Dock_telakka_104199328.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_switch_peleja_104286564.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14 lok 20:05</t>
+          <t>eilen 17:50</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pikmin 3 Deluxe</t>
+          <t>Nintendo Switch Mario Red &amp; Blue Edition pelikonso</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>33 €</t>
+          <t>339 €</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/etela-karjala/Pikmin_3_Deluxe_104198907.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_Mario_Red___Blue_Edition_pelikonso_100319614.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>14 lok 19:54</t>
+          <t>eilen 15:55</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nintendo Switch Lite, Animal Crossing New Horizons</t>
+          <t>Nintendo Switch Animal Crossing laukku</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>200 €</t>
+          <t>20 €</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_Switch_Lite__Animal_Crossing_New_Horizons_104196398.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_Switch_Animal_Crossing_laukku_104276235.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14 lok 18:45</t>
+          <t>eilen 15:25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Animal Crossing New Horizons (Switchille)</t>
+          <t>Nintendo Switch -UUSi-</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>40 €</t>
+          <t>250 €</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Animal_Crossing_New_Horizons__Switchille__104192012.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch__UUSi__102757005.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>14 lok 17:02</t>
+          <t>eilen 12:30</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nintendo switch v1 setup</t>
+          <t>Nintendo Switch Lite konsoli ja kotelo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>350 €</t>
+          <t>120 €</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/paijat-hame/Nintendo_switch_v1_setup_104191292.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/pohjois-savo/Nintendo_Switch_Lite_konsoli_ja_kotelo_104257537.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14 lok 16:46</t>
+          <t>eilen 11:02</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nintendo Switch + 128GB muistikortti</t>
+          <t>Nintendo Switch Super Smash Bros. Ultimate Edition</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>250 €</t>
+          <t>350 €</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/keski-suomi/Nintendo_Switch___128GB_muistikortti_104190601.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/kainuu/Nintendo_Switch_Super_Smash_Bros__Ultimate_Edition_104252651.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14 lok 16:29</t>
+          <t>eilen 09:22</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Marvel Ultimate Alliance 3 Nintendo Switch peli</t>
+          <t>Nintendo Switch Lite Dialga &amp; Palkia Edition</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>25 €</t>
+          <t>300 €</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/pohjois-pohjanmaa/Marvel_Ultimate_Alliance_3_Nintendo_Switch_peli_104188710.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/kainuu/Nintendo_Switch_Lite_Dialga___Palkia_Edition_104252320.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14 lok 15:46</t>
+          <t>eilen 09:10</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nintendo Switch pelit</t>
+          <t>Nintendo Switch Lite Blue</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>35 €</t>
+          <t>200 €</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_pelit_104180945.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/kainuu/Nintendo_Switch_Lite_Blue_104252278.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14 lok 12:50</t>
+          <t>eilen 09:09</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Nintendo Switch</t>
+          <t>Pokemon Let's go Pikachu! Nintendo switch</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>250 €</t>
+          <t>37 €</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_104180645.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/paijat-hame/Pokemon_Let_s_go_Pikachu__Nintendo_switch_104251424.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14 lok 12:42</t>
+          <t>eilen 08:35</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Switch Pro Controller, 45eur</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>45 €</t>
-        </is>
-      </c>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Switch_Pro_Controller__45eur_104171419.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_Switch_104251029.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14 lok 08:21</t>
+          <t>eilen 08:11</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nintendo</t>
+          <t>Live A Live Switch</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>295 €</t>
+          <t>35 €</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/etela-savo/Nintendo_104171182.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/uusimaa/Live_A_Live_Switch_104250580.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14 lok 08:09</t>
+          <t>eilen 07:25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nintendo switch kantokotelo</t>
+          <t>Pelikonsolien korjaus Nintendo Switch XBOX PS4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10 €</t>
+          <t>49 €</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/kanta-hame/Nintendo_switch_kantokotelo_104171120.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/pohjois-savo/Pelikonsolien_korjaus_Nintendo_Switch_XBOX_PS4_77769009.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14 lok 08:04</t>
+          <t>15 lok 21:06</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nintendo switch Skyrim suojakuori</t>
+          <t>Nintendo Switch V2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>15 €</t>
+          <t>220 €</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/kanta-hame/Nintendo_switch_Skyrim_suojakuori_104171106.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_V2__104243694.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14 lok 08:03</t>
+          <t>15 lok 19:57</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Nintendo Switch Pelit</t>
+          <t>Ys IX Monstrum Nox Switch</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>30 €</t>
+          <t>35 €</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Pelit_104169587.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/uusimaa/Ys_IX_Monstrum_Nox_Switch_104238823.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14 lok 01:52</t>
+          <t>15 lok 18:09</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nintendo Switch Irtopelit</t>
+          <t>Nintendo Switch pelit</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>30 €</t>
+          <t>20 €</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Irtopelit_104169484.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_pelit_104236457.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14 lok 01:14</t>
+          <t>15 lok 17:22</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mario Strikers Battle League - Nintendo Switch</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>30 €</t>
-        </is>
-      </c>
+          <t>Pelkkä Nintendo Switch -laatikko</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.tori.fi/uusimaa/Mario_Strikers_Battle_League___Nintendo_Switch_104168024.htm?ca=18&amp;w=3</t>
+          <t>https://www.tori.fi/keski-suomi/Pelkka_Nintendo_Switch__laatikko_104236081.htm?ca=18&amp;w=3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13 lok 22:42</t>
+          <t>15 lok 17:16</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>Varattu. Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Varattu__Nintendo_Switch_104232473.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15 lok 16:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nintendo Switch oled</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kymenlaakso/Nintendo_Switch_oled_104231399.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15 lok 15:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nintendo switch v2</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>280 €</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_switch_v2_104227200.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15 lok 14:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NES SCN 8-bit</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>95 €</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/NES_SCN_8_bit_104225713.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15 lok 14:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelikonsoli + 3 Peliä</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>350 €</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_pelikonsoli___3_Pelia_104220917.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15 lok 13:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nintendo Switch v2 Harmaa 2v takuu</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>270 €</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_v2_Harmaa_2v_takuu_104219102.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15 lok 12:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Games</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Games_104218181.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15 lok 12:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>230 €</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/Nintendo_switch_104216399.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>15 lok 11:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hori Nintendo Switch Mario Kart Pro Mini rattiohja</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>52 €</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Hori_Nintendo_Switch_Mario_Kart_Pro_Mini_rattiohja_104238694.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15 lok 09:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ryhmä hau peli (Nintendo switch lite)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Ryhma_hau_peli__Nintendo_switch_lite__104208498.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15 lok 09:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Dock telakka</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_Dock_telakka_104199328.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14 lok 20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Pikmin 3 Deluxe</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>33 €</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-karjala/Pikmin_3_Deluxe_104198907.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>14 lok 19:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite, Animal Crossing New Horizons</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_Switch_Lite__Animal_Crossing_New_Horizons_104196398.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>14 lok 18:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Animal Crossing New Horizons (Switchille)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Animal_Crossing_New_Horizons__Switchille__104192012.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14 lok 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Nintendo Switch + 128GB muistikortti</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Nintendo_Switch___128GB_muistikortti_104190601.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>14 lok 16:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Marvel Ultimate Alliance 3 Nintendo Switch peli</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Marvel_Ultimate_Alliance_3_Nintendo_Switch_peli_104188710.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>14 lok 15:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>230 €</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_104180645.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>14 lok 12:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Switch Pro Controller, 45eur</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Switch_Pro_Controller__45eur_104171419.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>14 lok 08:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Nintendo switch kantokotelo</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10 €</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/Nintendo_switch_kantokotelo_104171120.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>14 lok 08:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nintendo switch Skyrim suojakuori</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/Nintendo_switch_Skyrim_suojakuori_104171106.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14 lok 08:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Pelit</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Pelit_104169587.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>14 lok 01:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Irtopelit</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Irtopelit_104169484.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>14 lok 01:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Mario Strikers Battle League - Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Mario_Strikers_Battle_League___Nintendo_Switch_104168024.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13 lok 22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PS3, Nintendo Switch ja Nintendo SNES and NES</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/PS3__Nintendo_Switch_ja_Nintendo_SNES_and_NES_104166917.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>13 lok 21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Oled</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>380 €</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/paijat-hame/Nintendo_Switch_Oled_104165223.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>13 lok 21:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Nintendo Switch paketti 9 ohjainta, super smash</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>800 €</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_Switch_paketti_9_ohjainta__super_smash_104148296.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13 lok 14:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite pelikonsoli (harmaa)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>177 €</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Lite_pelikonsoli__harmaa__104169703.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>13 lok 12:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Pokemon Arceus switch</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-savo/Pokemon_Arceus_switch_104135614.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>13 lok 09:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Mario Tennis Aces Nintendo Switch JNS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Mario_Tennis_Aces_Nintendo_Switch_JNS_104135050.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>13 lok 09:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Super Mario Maker 2 Nintendo Switch JNS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Super_Mario_Maker_2_Nintendo_Switch_JNS_104135022.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>13 lok 09:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite suojakotelo JNS</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_Lite_suojakotelo_JNS_104134990.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>13 lok 09:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>Nintendo Switch Lite</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>https://www.tori.fi/keski-suomi/Nintendo_Switch_Lite_104167029.htm?ca=18&amp;w=3</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>13 lok 22:03</t>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Lite_104133639.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>13 lok 07:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite Pokémon (Zamazenta &amp; Zacian)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>165 €</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Lite_Pokemon__Zamazenta___Zacian__104133318.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>13 lok 07:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Mario Red &amp; Blue Edition</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>350 €</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/lappi/Nintendo_Switch_Mario_Red___Blue_Edition_104131558.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12 lok 23:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Animal Crossing Limited Edition</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>300 €</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/satakunta/Nintendo_Switch_Animal_Crossing_Limited_Edition_103950966.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>12 lok 22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ring Fit Adventure -peli</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/paijat-hame/Ring_Fit_Adventure__peli_104128373.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>12 lok 21:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>230 €</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_switch_104126151.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>12 lok 20:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Tarjoa kaikenlaisia pelikonsoleja</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Tarjoa_kaikenlaisia_pelikonsoleja_104125775.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>12 lok 20:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>The Legend Of Zelda : Breath Of Wild - Zelda</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/The_Legend_Of_Zelda___Breath_Of_Wild___Zelda_104121990.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>12 lok 18:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>105 €</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Lite_104112173.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>12 lok 15:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Animal Crossing New Horizons (Nintendo Switch)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Animal_Crossing_New_Horizons__Nintendo_Switch__104102418.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>12 lok 11:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Nintendo RF Switch 8bit &amp; Sees</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>5 €</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_RF_Switch_8bit___Sees_104102176.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>12 lok 11:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite EU pelikonsoli (harmaa)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>177 €</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_Switch_Lite_EU_pelikonsoli__harmaa__104123812.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>12 lok 09:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_104096933.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>12 lok 09:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Nintendo Switch 2019 pelikonsoli + Joy-Con ohjaime</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>269 €</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/paijat-hame/Nintendo_Switch_2019_pelikonsoli___Joy_Con_ohjaime_104101515.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>12 lok 08:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nintendo Switch -pelit</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch__pelit_104086892.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>11 lok 20:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Super mario party</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Super_mario_party_104080936.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>11 lok 17:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelit</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_pelit_104073807.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>11 lok 15:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Pokemon brilliant diamond</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Pokemon_brilliant_diamond_104047107.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>10 lok 20:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Nintendo Switch - Bayala</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_Switch___Bayala_104022651.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>10 lok 11:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Final Fantasy XII (12) Nintendo SWITCH</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Final_Fantasy_XII__12__Nintendo_SWITCH_104017754.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>10 lok 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Kotelo</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>10 €</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_Kotelo_104011783.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>9 lok 22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelejä</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/Nintendo_Switch_peleja_104009023.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>9 lok 21:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Rico Nintendo Switch peli</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Rico_Nintendo_Switch_peli_104006945.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9 lok 20:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Dragons Nintendo Switch peli</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Dragons_Nintendo_Switch_peli_104006867.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>9 lok 20:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Söpö OLED Nintendo Switch suoja</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Sopo_OLED_Nintendo_Switch_suoja_103992900.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>9 lok 16:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Sekalaisia pelejä eri konsoleille, hinnat alkaen</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>3 €</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-savo/Sekalaisia_peleja_eri_konsoleille__hinnat_alkaen_103979571.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>9 lok 13:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>O: konsolit , pelit ja pelikoneet</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/O__konsolit___pelit_ja_pelikoneet_103972351.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>9 lok 11:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Crash team racing nintendo switch</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-savo/Crash_team_racing_nintendo_switch_103971350.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>9 lok 11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelit</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_pelit_103963141.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>9 lok 07:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Super Mario pelejä ynnä muuta</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Super_Mario_peleja_ynna_muuta_103944172.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>8 lok 16:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelit</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kainuu/Nintendo_Switch_pelit_103938195.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>8 lok 14:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Switch Lego The incredibles</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Switch_Lego_The_incredibles_103934329.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>8 lok 14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Switch Mario Golf super rush</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Switch_Mario_Golf_super_rush_103932872.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>8 lok 13:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Switch DC superhero girls teen power</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>28 €</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Switch_DC_superhero_girls_teen_power_103932854.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>8 lok 13:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Nintendo Switch + tarvikkeet</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>280 €</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch___tarvikkeet_103920127.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>8 lok 10:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Pokemon Arceus Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Pokemon_Arceus_Nintendo_Switch_103912475.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>7 lok 22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Need for Speed Hot Pursuit Nintendo Switch JNS</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Need_for_Speed_Hot_Pursuit_Nintendo_Switch_JNS_103899448.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>7 lok 16:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite JNS</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>170 €</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_Lite_JNS_103899406.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>7 lok 16:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>320 €</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_103890977.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>7 lok 13:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/Nintendo_Switch_Lite_103888379.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>7 lok 11:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Nintendo switch + muistikortti 64gb</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-savo/Nintendo_switch___muistikortti_64gb_103880456.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>7 lok 08:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>140 €</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-savo/Nintendo_Switch_Lite__103878407.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>6 lok 23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Nintendo Switch (V2)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>280 €</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/satakunta/Nintendo_Switch__V2__103875859.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>6 lok 21:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>DC Super Hero Girls Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/DC_Super_Hero_Girls_Nintendo_Switch_103874530.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>6 lok 20:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Super Mario langallinen peliohjain</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Super_Mario_langallinen_peliohjain_103872064.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>6 lok 19:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelejä JNS</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_peleja_JNS_103859989.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>6 lok 15:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Nintendo Switch V2 JNS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>280 €</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_V2_JNS_103859019.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>6 lok 15:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelejä</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_peleja_103856704.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>6 lok 14:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelikonsoli</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_Switch_pelikonsoli_103856438.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>6 lok 14:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Hyväkuntoinen Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Hyvakuntoinen_Nintendo_Switch_103842863.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>6 lok 09:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Legend of Zelda Breath of the Wild suojakotelo</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Legend_of_Zelda_Breath_of_the_Wild_suojakotelo_103841847.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>6 lok 08:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Snes ohjain Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Snes_ohjain_Nintendo_switch_103839262.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>6 lok 00:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/satakunta/Nintendo_Switch_103828047.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>5 lok 18:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelikonsoli</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>280 €</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_pelikonsoli_103825348.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>5 lok 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>O: Pokemon Nintendo 3DS pelejä</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/O__Pokemon_Nintendo_3DS_peleja_103816516.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>5 lok 14:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Super Mario Odyssey ja Pokemon Arceus</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>36 €</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-pohjanmaa/Super_Mario_Odyssey_ja_Pokemon_Arceus_103816454.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>5 lok 14:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>PowerA Nintendo Switch Pro langaton ohjain (valkoi</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>59 €</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/PowerA_Nintendo_Switch_Pro_langaton_ohjain__valkoi_101247513.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5 lok 14:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Playstation nintendo xbox</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Playstation_nintendo_xbox__103814797.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5 lok 13:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Axiom Verge Soundtrack LP Limited Run</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/paijat-hame/Axiom_Verge_Soundtrack_LP_Limited_Run_103811496.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>5 lok 12:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Metroid Dread NINTENDO SWITCH</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/paijat-hame/Metroid_Dread_NINTENDO_SWITCH_103808202.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>5 lok 11:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Labo Toy-Con 01 Variety kit</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Labo_Toy_Con_01_Variety_kit_103807772.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>5 lok 11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite - Zacian &amp; Zamazenta Edition</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_Lite___Zacian___Zamazenta_Edition_103802800.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>5 lok 08:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Hot Wheels Unleashed Nintendo Switch peli</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Hot_Wheels_Unleashed_Nintendo_Switch_peli_103780977.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>4 lok 15:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/lappi/Nintendo_switch_103779632.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4 lok 15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_103775818.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4 lok 14:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelit</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/satakunta/Nintendo_switch_pelit_103775089.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4 lok 13:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Upea uusi mökki Ylläksellä</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/lappi/Upea_uusi_mokki_Yllaksella_103762445.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>4 lok 10:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Uusi nintendo switch</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>320 €</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Uusi_nintendo_switch_103760806.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>4 lok 09:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_switch_103758480.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4 lok 07:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Nintendo Switch OLED setti</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>400 €</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/satakunta/Nintendo_Switch_OLED_setti_103754595.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3 lok 21:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelejä</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_Switch_peleja_103751510.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>3 lok 20:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>395 €</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-savo/Nintendo_switch_103750025.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>3 lok 19:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Nintendo switch plus peli</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>260 €</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/lappi/Nintendo_switch_plus_peli_103736850.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>3 lok 15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>OST Nintendo Switch laturi ja telakka</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/OST_Nintendo_Switch_laturi_ja_telakka_103731653.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3 lok 13:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>PGA Tour 2K21, Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>10 €</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/PGA_Tour_2K21__Nintendo_Switch_103721120.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>3 lok 09:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Anker PowerCore 13400 Nintendo Switch Edition</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/paijat-hame/Anker_PowerCore_13400_Nintendo_Switch_Edition_103712920.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2 lok 21:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Zelda -joycons</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Zelda__joycons_103711563.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2 lok 20:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Nintendo switch konsoli</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>280 €</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/Nintendo_switch_konsoli_103709295.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2 lok 19:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Razer Kraken X pelikuulokkeet</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>14 €</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Razer_Kraken_X_pelikuulokkeet_103707559.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2 lok 19:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Dragon quest pelit</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_Switch_Dragon_quest_pelit_103706190.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2 lok 19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Nintendo switch deluxe travel case</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-savo/Nintendo_switch_deluxe_travel_case_103699735.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2 lok 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Panzer Paladin peli Nintendo Switch NSW</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Panzer_Paladin_peli_Nintendo_Switch_NSW_103687695.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2 lok 14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>290 €</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-savo/Nintendo_switch_103684631.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2 lok 13:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>500 €</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_103673437.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2 lok 11:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Triangle Strategy (Nintendo Switch)</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/Triangle_Strategy__Nintendo_Switch__103657343.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1 lok 19:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Mario Maker 2 -peli</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_Switch_Mario_Maker_2__peli_103651003.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1 lok 17:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Hollow Knight - Collectors edition Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>55 €</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Hollow_Knight___Collectors_edition_Nintendo_Switch_103642395.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1 lok 15:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Switch -peli - Paper Mario: The Origami King</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Switch__peli___Paper_Mario__The_Origami_King_103628825.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1 lok 11:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Lite_103622519.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1 lok 09:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Switch: Mortal Kombat 11 Aftermath</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Switch__Mortal_Kombat_11_Aftermath_103616889.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>30 syy 21:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelejä</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_peleja_103591224.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>30 syy 11:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Peli-Mario tennis aces</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_Peli_Mario_tennis_aces_103586494.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>30 syy 09:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Shin Megami Tensei 5</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>38 €</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Shin_Megami_Tensei_5_103581865.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>29 syy 22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_103565296.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>29 syy 15:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>225 €</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_103560020.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>29 syy 13:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Nintendo switch peli: Luigi Mansion 3</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_switch_peli__Luigi_Mansion_3_103544205.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>28 syy 23:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>New Pokemon Snap (Switch)</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>28 €</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/New_Pokemon_Snap__Switch__103520520.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>28 syy 13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Switch PDP FaceOff Wired Pro Controller</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Switch_PDP_FaceOff_Wired_Pro_Controller_103508299.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>28 syy 08:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Pokemon shining pearl</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-karjala/Pokemon_shining_pearl_103507814.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>28 syy 08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelejä</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kymenlaakso/Nintendo_Switch_peleja_103494349.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>27 syy 18:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelejä</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_Switch_peleja_103493963.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>27 syy 18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Waterfield Slip Case Nintendo Switchille</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kymenlaakso/Waterfield_Slip_Case_Nintendo_Switchille_103493841.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>27 syy 18:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Nintendo Switch lite Pokemon Sword&amp;Shield edition.</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-karjala/Nintendo_Switch_lite_Pokemon_Sword_Shield_edition__103487469.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>27 syy 16:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite JNS</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>170 €</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_Lite_JNS_103471728.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>27 syy 11:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Sony A7 Full Frame - 28-70mm - EF Mount Adapter</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>620 €</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Sony_A7_Full_Frame___28_70mm___EF_Mount_Adapter_103471224.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>27 syy 10:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Pokémon Shining Pearl Nintendo Switch peli</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Pokemon_Shining_Pearl_Nintendo_Switch_peli_103469707.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>27 syy 10:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Nintendo switch Taiko no tatsujin drum n fun</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/lappi/Nintendo_switch_Taiko_no_tatsujin_drum_n_fun_103469499.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>27 syy 10:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Nintendo Amiibo Tom Nook 3ds / wii U / Switch</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/lappi/Nintendo_Amiibo_Tom_Nook_3ds___wii_U___Switch_103468551.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>27 syy 09:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Switch-peli: Splatoon 2</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Switch_peli__Splatoon_2_103459871.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>26 syy 21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Nintendo Switch ja pelit.</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>220 €</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_ja_pelit__103456188.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>26 syy 19:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite pelikonsoli (turkoosi)</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>188 €</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_Lite_pelikonsoli__turkoosi__101671724.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>26 syy 19:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kymenlaakso/Nintendo_Switch_103450311.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>26 syy 18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>PowerA Nintendo Switch Pro langaton ohjain (musta)</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>59 €</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/PowerA_Nintendo_Switch_Pro_langaton_ohjain__musta__90663514.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>26 syy 17:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>PowerA Nintendo Switch Pro langaton ohjain (valkoi</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>59 €</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/PowerA_Nintendo_Switch_Pro_langaton_ohjain__valkoi_100011547.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>26 syy 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>170 €</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_Switch_Lite_103442266.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>26 syy 15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Nintendo switch lite pokemon edition + 2 peliä</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/paijat-hame/Nintendo_switch_lite_pokemon_edition___2_pelia_103436545.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>26 syy 13:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>PowerA Nintendo Switch Pro langaton ohjain (musta)</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>59 €</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-karjala/PowerA_Nintendo_Switch_Pro_langaton_ohjain__musta__96707473.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>26 syy 11:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>PowerA Nintendo Switch Pro langaton ohjain (valkoi</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>59 €</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/PowerA_Nintendo_Switch_Pro_langaton_ohjain__valkoi_95898851.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>26 syy 10:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Hori Nintendo Switch Mario Kart Pro Deluxe rattioh</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>84 €</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kymenlaakso/Hori_Nintendo_Switch_Mario_Kart_Pro_Deluxe_rattioh_103450500.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>26 syy 09:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Hori Nintendo Switch Mario Kart Pro Mini rattiohja</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>59 €</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Hori_Nintendo_Switch_Mario_Kart_Pro_Mini_rattiohja_92638586.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>26 syy 08:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Mario Red &amp; Blue Edition pelikonso</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>319 €</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_Mario_Red___Blue_Edition_pelikonso_101876008.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>26 syy 08:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>PowerA Nintendo Switch Pro langaton ohjain (musta)</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>59 €</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/PowerA_Nintendo_Switch_Pro_langaton_ohjain__musta__100000338.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>26 syy 07:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>PowerA Nintendo Switch Pro langaton ohjain (musta)</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>55 €</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/PowerA_Nintendo_Switch_Pro_langaton_ohjain__musta__92634030.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>26 syy 07:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelit</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>60 €</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_pelit_103418215.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>25 syy 21:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Mario kart 8 Deluxe Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Mario_kart_8_Deluxe_Nintendo_switch_103416010.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>25 syy 20:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Nintendo Switch - Trine 4</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch___Trine_4_103398013.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>25 syy 16:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>290 €</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_103395458.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>25 syy 15:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelit</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_pelit_103363288.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>24 syy 20:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Pro Controller MonHu Rise</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>75 €</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Pro_Controller_MonHu_Rise_103362873.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>24 syy 20:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Logitech pelikuulokkeet</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Logitech_pelikuulokkeet_103336493.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>24 syy 12:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Nintendo switch ja pelejä</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_switch_ja_peleja_103318140.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>23 syy 20:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Pelejä ja pelitarvikkeita</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Peleja_ja_pelitarvikkeita_103306476.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>23 syy 15:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Hori Nintendo Switch Mario Kart Pro Deluxe rattioh</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>84 €</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/lappi/Hori_Nintendo_Switch_Mario_Kart_Pro_Deluxe_rattioh_101556040.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>23 syy 11:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Playstation 4 xbox one Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Playstation_4_xbox_one_Nintendo_switch_103295894.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>23 syy 11:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>XIII Nintendo Switch uusi muoveissa</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjanmaa/XIII_Nintendo_Switch_uusi_muoveissa_103295160.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>23 syy 11:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Waterfield designs -suojakotelo Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>65 €</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Waterfield_designs__suojakotelo_Nintendo_Switch_103286014.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>22 syy 22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Team Sonic Racing Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-pohjanmaa/Team_Sonic_Racing_Nintendo_Switch_103263959.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>22 syy 13:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_103248482.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>21 syy 23:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Nintendo Switch v2</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_v2_103247692.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>21 syy 22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Nopeasti rahaa Pokemoneilla</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nopeasti_rahaa_Pokemoneilla_103243178.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>21 syy 20:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelejä 40e kpl</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_switch_peleja_40e_kpl_103227773.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>21 syy 15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Nintendo Switch V2 Oled konsoli ja pelit</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_V2_Oled_konsoli_ja_pelit_103226052.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>21 syy 14:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Nintendo Switch PlayStand</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_PlayStand_103218420.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>21 syy 11:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Nintendo switch lite</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/lappi/Nintendo_switch_lite_103201221.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>20 syy 19:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Super Smash Bros Ultimate JNS</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>350 €</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_Super_Smash_Bros_Ultimate_JNS_103191135.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>20 syy 16:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Labo - peli</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-pohjanmaa/Nintendo_Switch_Labo___peli_103160119.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>19 syy 20:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Super mario odessey nintendo switch</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Super_mario_odessey_nintendo_switch_103160108.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>19 syy 20:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelejä</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_peleja_103154076.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>19 syy 18:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Shin Megami Tensei V Switch</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Shin_Megami_Tensei_V_Switch_103145809.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>19 syy 16:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Nintendo switch korttikotelo telakka</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>5 €</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/lappi/Nintendo_switch_korttikotelo_telakka_103145073.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>19 syy 16:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Skylanders imaginators nintendo switch</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>90 €</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Skylanders_imaginators_nintendo_switch_103144095.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>19 syy 15:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-savo/Nintendo_Switch_103139504.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>19 syy 14:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 64GB Valkoinen, akku 100%</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>399 €</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Apple_iPhone_11_64GB_Valkoinen__akku_100__103127917.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>19 syy 10:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Nintendo Switch HAC-001 pelikonsoli</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>130 €</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_HAC_001_pelikonsoli_103123207.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>19 syy 07:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Wii tai Wii U tasapainolauta, aito Nintendo</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/satakunta/Wii_tai_Wii_U_tasapainolauta__aito_Nintendo_103094294.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>18 syy 15:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>o: Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/o__Nintendo_Switch_103083446.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>18 syy 13:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Hori Nintendo Switch Mario Kart Pro Mini rattiohja</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>55 €</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Hori_Nintendo_Switch_Mario_Kart_Pro_Mini_rattiohja_101415556.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>18 syy 07:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Pelikuulokkeet Steelseries uutta vastaavat</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/lappi/Pelikuulokkeet_Steelseries_uutta_vastaavat_103046232.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>17 syy 16:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite Pokemon Dialga &amp; Palkia</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>160 €</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Lite_Pokemon_Dialga___Palkia_103034378.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>17 syy 13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Nintendo switch monster Hunter</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_monster_Hunter__103029957.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>17 syy 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Skylanders hahmoja sarja 5-6 JNS</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Skylanders_hahmoja_sarja_5_6_JNS_103025364.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>17 syy 11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Skylanders hahmoja sarja 4 JNS</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Skylanders_hahmoja_sarja_4_JNS_103025318.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>17 syy 11:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Skylanders hahmoja sarja 3 JNS</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Skylanders_hahmoja_sarja_3_JNS_103025261.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>17 syy 11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Skylanders hahmoja sarja 2 JNS</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Skylanders_hahmoja_sarja_2_JNS_103025200.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>17 syy 11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Skylanders hahmoja sarja 1 JNS</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Skylanders_hahmoja_sarja_1_JNS_103025097.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>17 syy 11:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Pelejä (NSW)</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_Switch_Peleja__NSW__103020879.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>17 syy 10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Nintendo switch zacian and zamazenta edition</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>235 €</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_zacian_and_zamazenta_edition_103011499.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>16 syy 21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelit 2kpl</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_pelit_2kpl_103011477.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>16 syy 21:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Azus Rog Strix Go 2.4 pelikuulokkeet</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>90 €</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Azus_Rog_Strix_Go_2_4_pelikuulokkeet_103009457.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>16 syy 20:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Nintendo switch langallinen ohjain</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_switch_langallinen_ohjain_103005002.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>16 syy 18:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Switch pelejä</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Switch_peleja_102991529.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>16 syy 13:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Vialliset Pelikonsolit Sekä Ohjaimet</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Vialliset_Pelikonsolit_Seka_Ohjaimet_102954976.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>15 syy 15:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite EU pelikonsoli (turkoosi)</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>177 €</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kymenlaakso/Nintendo_Switch_Lite_EU_pelikonsoli__turkoosi__100542580.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>15 syy 12:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Nintendo Switch + Super Mario 3D All Stars 3peliä</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>280 €</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch___Super_Mario_3D_All_Stars_3pelia_102939065.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>15 syy 09:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>350 €</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_switch_102938881.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>15 syy 09:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite Pelikonsoli</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>195 €</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_Switch_Lite_Pelikonsoli_102915892.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>14 syy 16:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite JNS</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>170 €</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_Lite_JNS_102910877.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>14 syy 14:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Mario Red &amp; Blue Edition pelikonso</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>339 €</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kymenlaakso/Nintendo_Switch_Mario_Red___Blue_Edition_pelikonso_100542587.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>14 syy 13:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Nintendo switch konsoli</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>200 €</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_switch_konsoli_102896620.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>14 syy 09:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelejä</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_switch_peleja_102895601.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>14 syy 09:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Indivisible Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjanmaa/Indivisible_Nintendo_Switch_102872471.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>13 syy 15:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>PowerA Nintendo Switch Pro langaton ohjain (musta)</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>59 €</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/paijat-hame/PowerA_Nintendo_Switch_Pro_langaton_ohjain__musta__102885823.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>13 syy 13:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Cat quest ja cat quest II switch</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>27 €</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kymenlaakso/Cat_quest_ja_cat_quest_II_switch_102864289.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>13 syy 12:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Hori wired LAN adapter Switch</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>10 €</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-savo/Hori_wired_LAN_adapter_Switch_102857998.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>13 syy 10:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Pokemon Shining Pearl (Nintendo Switch)</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Pokemon_Shining_Pearl__Nintendo_Switch__102852683.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>13 syy 08:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite EU pelikonsoli (turkoosi)</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>156 €</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjanmaa/Nintendo_Switch_Lite_EU_pelikonsoli__turkoosi__99511671.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>12 syy 20:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Need for speed Hot pursuit Remastered</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Need_for_speed_Hot_pursuit_Remastered_102839656.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>12 syy 18:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Nintendo Switch kotelo harmaa normaali / oled</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/lappi/Nintendo_Switch_kotelo_harmaa_normaali___oled_102807896.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>12 syy 00:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Nintendo switch OLED</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>320 €</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_OLED_102801361.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>11 syy 20:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Animal Crossing Edition</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>400 €</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Animal_Crossing_Edition_102795830.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>11 syy 18:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Crash bandicoot 4 (switch)</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Crash_bandicoot_4__switch__102781919.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>11 syy 15:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Nintendo_switch_102757669.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>11 syy 09:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Nintendo switcH oleD 64GB</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>215 €</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjanmaa/Nintendo_switcH_oleD_64GB_102740121.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>10 syy 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Nintendo switch peli</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_peli_102729775.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>10 syy 14:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Carrying Case</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>10 €</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Carrying_Case_102727619.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>10 syy 13:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Nintendo switch NBA 2k</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_NBA_2k_102716276.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>10 syy 10:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Nintendo switch peli</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_peli_102713598.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>10 syy 09:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Nintendo_Switch_102707807.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>9 syy 22:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>AVAAMATON Skylanders imaginators Aloituspakkaus</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-savo/AVAAMATON_Skylanders_imaginators_Aloituspakkaus__102703817.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>9 syy 19:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelejä ja Pro Controller ohjain</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-pohjanmaa/Nintendo_Switch_peleja_ja_Pro_Controller_ohjain_102692102.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>9 syy 15:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>A Short Hike avaamaton</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>70 €</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjanmaa/A_Short_Hike_avaamaton_102683751.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>9 syy 12:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>O: Nintendo switch VASEN joycon</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/satakunta/O__Nintendo_switch_VASEN_joycon_102668228.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>8 syy 20:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Logitech G432 -pelikuulokkeet</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>10 €</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Logitech_G432__pelikuulokkeet_102642848.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>8 syy 11:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_102621672.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>7 syy 18:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>O: Young Link amiibo (Super Smash Bros)</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr"/>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/O__Young_Link_amiibo__Super_Smash_Bros__102600524.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>7 syy 11:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelejä</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_peleja_102596433.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>7 syy 10:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>HyperX Cloud 2 pelikuulokkeet</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-savo/HyperX_Cloud_2_pelikuulokkeet_102566680.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>6 syy 15:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Nintendo Switch LISÄOSAT (Ei mukana Switchiä)</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_Switch_LISAOSAT__Ei_mukana_Switchia__102547960.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>6 syy 08:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>PilotWings SNES PAL - EUR Lue Tiedot Pkt 3Eu</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>22 €</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/PilotWings_SNES_PAL___EUR_Lue_Tiedot_Pkt_3Eu_102523855.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>5 syy 15:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Nintendo switch labo uusi</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_labo_uusi_102520187.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>5 syy 15:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Hori Nintendo Switch Mario Kart Pro Mini rattiohja</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>59 €</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/Hori_Nintendo_Switch_Mario_Kart_Pro_Mini_rattiohja_102514916.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>5 syy 12:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Stranger Things nintendo switch peli</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Stranger_Things_nintendo_switch_peli_102512610.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>5 syy 12:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Ring Fit adventure -liikuntapeli</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>42 €</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_Switch_Ring_Fit_adventure__liikuntapeli_102512193.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>5 syy 12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelejä</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/satakunta/Nintendo_Switch_peleja_102510660.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>5 syy 12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Hori Nintendo Switch Mario Kart Pro Deluxe rattioh</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>84 €</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/Hori_Nintendo_Switch_Mario_Kart_Pro_Deluxe_rattioh_102511244.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>5 syy 07:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Nintendo Switch 2019 pelikonsoli + Joy-Con ohjaime</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>269 €</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kymenlaakso/Nintendo_Switch_2019_pelikonsoli___Joy_Con_ohjaime_102508634.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>5 syy 07:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Uudet Nintendo Switch-pelit</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/Uudet_Nintendo_Switch_pelit_102496806.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>4 syy 22:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>No more heroes III nintendo switch</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/satakunta/No_more_heroes_III_nintendo_switch_102493928.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>4 syy 21:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelit</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>90 €</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_switch_pelit_102480114.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>4 syy 17:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Monster hunter stories 2 nintendo switch</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/satakunta/Monster_hunter_stories_2_nintendo_switch_102462798.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>4 syy 14:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Monster hunter rise nintendo switch</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/satakunta/Monster_hunter_rise_nintendo_switch_102462569.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>4 syy 14:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Avaamattomia Star Wars Legoja</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>320 €</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Avaamattomia_Star_Wars_Legoja_102396876.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>3 syy 10:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>320 €</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch__102396119.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>3 syy 10:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Nintendo switch OLED + 3 peliä</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>550 €</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/satakunta/Nintendo_switch_OLED___3_pelia_102390002.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>3 syy 06:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>The walking dead The final season Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/The_walking_dead_The_final_season_Nintendo_switch_102376754.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2 syy 17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Splatoon 2 Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-pohjanmaa/Splatoon_2_Nintendo_Switch_102338203.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>1 syy 18:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Nintendo Switch setti</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>400 €</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_setti_102299845.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>31 elo 19:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>ATV Drifts &amp; Tricks - Nintendo Switch peli</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/ATV_Drifts___Tricks___Nintendo_Switch_peli_102286212.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>31 elo 15:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Nintendo switch ja pelejä</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-pohjanmaa/Nintendo_switch_ja_peleja_102250168.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>30 elo 18:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>PowerA Nintendo Switch Pro langaton ohjain (musta)</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>59 €</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kymenlaakso/PowerA_Nintendo_Switch_Pro_langaton_ohjain__musta__102253771.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>30 elo 08:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Harmaa Nintendo switch lite</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>155 €</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Harmaa_Nintendo_switch_lite_102182965.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>29 elo 11:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelejä</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_peleja_102181117.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>29 elo 10:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>80 €</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/satakunta/Nintendo_switch_102177841.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>29 elo 09:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>O: nintendo switch (lite)</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/O__nintendo_switch__lite__102171338.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>28 elo 21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Nintendo Switch sekä nippu pelejä ja tarvikkeita</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>480 €</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Nintendo_Switch_seka_nippu_peleja_ja_tarvikkeita_102142109.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>28 elo 13:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Nintendo switch luigi auto "vain nouto"Varattu</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_switch_luigi_auto__vain_nouto_Varattu_102131505.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>28 elo 10:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Nintendo Switch suojakotelo Zelda JNS</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_suojakotelo_Zelda_JNS_102097887.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>27 elo 12:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Nintendo Switch suojakotelo JNS</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_suojakotelo_JNS_102097812.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>27 elo 12:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Nintendo Switch V2 JNS</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>290 €</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_V2_JNS_102097537.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>27 elo 12:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Ankha Animal Crossing Amiibo kortti</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Ankha_Animal_Crossing_Amiibo_kortti_102083942.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>26 elo 23:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>PSP &amp; Manga with other treasures</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>150 €</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/PSP___Manga_with_other_treasures_102080882.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>26 elo 20:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite suojakotelo JNS</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_Lite_suojakotelo_JNS_102079547.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>26 elo 20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite JNS</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>170 €</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_Lite_JNS_102078774.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>26 elo 19:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite suojakotelo JNS</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_Lite_suojakotelo_JNS_102071620.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>26 elo 16:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Pro Controller JNS</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_Pro_Controller_JNS_102071520.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>26 elo 16:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Switch näyttösuoja</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Switch_nayttosuoja_102066578.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>26 elo 14:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Nintendo 8 bit, 16, 64, switch ym</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr"/>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-savo/Nintendo_8_bit__16__64__switch_ym_102052384.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>26 elo 08:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Playstation 2 (w/ box, accessories &amp; games)</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>100 €</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Playstation_2__w__box__accessories___games__102050850.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>26 elo 07:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>LOL Surprise Remix We Rule the World -peli</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/LOL_Surprise_Remix_We_Rule_the_World__peli_102033331.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>25 elo 16:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Foreclosed</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjanmaa/Nintendo_Switch_Foreclosed_102025216.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>25 elo 13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Sayonara Wild Hearts</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjanmaa/Nintendo_Switch_Sayonara_Wild_Hearts_102025166.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>25 elo 13:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Nintendo lite switch</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>250 €</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_lite_switch__102016279.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>25 elo 09:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>140 €</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Lite_102013304.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>25 elo 07:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Nintendo Switch suojalaukku ja näytönsuoja</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>6 €</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_suojalaukku_ja_naytonsuoja_101939066.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>23 elo 11:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Pokemon Legends Arceus</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr"/>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-savo/Pokemon_Legends_Arceus_101938782.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>23 elo 11:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Fifa 2018 Nintendo Switchille</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Fifa_2018_Nintendo_Switchille_101908358.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>22 elo 16:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>O: Pokemon pelejä</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/O__Pokemon_peleja_101894517.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>22 elo 11:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>UUSI - O:stetaan Pelit ja Pelikonsolit</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr"/>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kanta-hame/UUSI___O_stetaan_Pelit_ja_Pelikonsolit_101887154.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>22 elo 08:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelit</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_pelit_101875294.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>21 elo 19:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Super Mario 3D All Stars peli</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Super_Mario_3D_All_Stars_peli_101873309.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>21 elo 18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Sports</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_Switch_Sports_101834020.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>20 elo 20:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>LEGO JURASSIC WORLD nintendo switch</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/lappi/LEGO_JURASSIC_WORLD_nintendo_switch__101833731.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>20 elo 20:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>POKEMON LETS GOO EEVEE nintendo switch</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>38 €</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/lappi/POKEMON_LETS_GOO_EEVEE_nintendo_switch_101833512.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>20 elo 20:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Nintendo Switch CTR Crash Team Racing</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_Switch_CTR_Crash_Team_Racing_101827138.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>20 elo 17:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Monster Hunter stories 2: Wings of Ruin</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Monster_Hunter_stories_2__Wings_of_Ruin_101813618.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>20 elo 12:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Super Mario Odyssey</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Super_Mario_Odyssey_101813411.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>20 elo 12:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Buying Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Buying_Nintendo_Switch__101784660.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>19 elo 15:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Lite</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>180 €</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Lite_101732765.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>18 elo 08:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Nintendo switch akku hac-003 (ei liten akku)</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>17 €</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kymenlaakso/Nintendo_switch_akku_hac_003__ei_liten_akku__101709937.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>17 elo 15:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Nintendo switch lite</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>110 €</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kymenlaakso/Nintendo_switch_lite_101689185.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>16 elo 22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>PowerA Nintendo Switch Donkey Kong Edition ohjain</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/PowerA_Nintendo_Switch_Donkey_Kong_Edition_ohjain_101646836.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>15 elo 20:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>PowerA Nintendo Switch Splatoon Edition ohjain</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/PowerA_Nintendo_Switch_Splatoon_Edition_ohjain_101646568.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>15 elo 20:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>PowerA Nintendo Switch Yoshi Edition ohjain</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/PowerA_Nintendo_Switch_Yoshi_Edition_ohjain_101646509.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>15 elo 20:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>PowerA Nintendo Switch Legend of Zelda: Link Editi</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/PowerA_Nintendo_Switch_Legend_of_Zelda__Link_Editi_101646262.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>15 elo 20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Hori splitpad pro ohjain nintendo switchille</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Hori_splitpad_pro_ohjain_nintendo_switchille_101618582.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>15 elo 11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Nintendo Switch peli Fitness Boxing 2</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Nintendo_Switch_peli_Fitness_Boxing_2_101559978.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>13 elo 19:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Nintendo switch lite</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>170 €</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/paijat-hame/Nintendo_switch_lite_101536284.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>13 elo 11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Nintendo switch lite pelikonsoli</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>130 €</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-karjala/Nintendo_switch_lite_pelikonsoli_101532293.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>13 elo 09:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Nintendo switch lite</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>140 €</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-savo/Nintendo_switch_lite_101522079.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>12 elo 19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Logitech G432 Pelikuulokeet 7.1</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-karjala/Logitech_G432_Pelikuulokeet_7_1_101413371.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>10 elo 07:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Olen ostamassa Xbox PlayStation Nintendo konsoli</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Olen_ostamassa_Xbox_PlayStation_Nintendo_konsoli_101307145.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>7 elo 18:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Nba 2k19</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Nba_2k19_101257029.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>6 elo 16:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Zelda pelejä</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_Switch_Zelda_peleja_101235482.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>6 elo 10:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Nintendo Switch :lle Paw Patrol pelejä</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Nintendo_Switch__lle_Paw_Patrol_peleja_101204422.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>5 elo 12:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Rob amiibo / r.o.b. amiibo Japanese edition - new</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>45 €</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Rob_amiibo___r_o_b__amiibo_Japanese_edition___new_101203418.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>5 elo 12:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Trivial Pursuit Live!</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>15 €</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Trivial_Pursuit_Live__101099707.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2 elo 20:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Nintendo Switch pelejä</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Nintendo_Switch_peleja_100577612.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>21 hei 15:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Bakugan champions of vestroia</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjanmaa/Bakugan_champions_of_vestroia_100452775.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>18 hei 15:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Nintendo Switch game - Story of Seasons</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>35 €</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_game___Story_of_Seasons_100299421.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>14 hei 20:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Nintendo switch peli</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>32 €</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Nintendo_switch_peli_100136404.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>10 hei 21:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Nintendo switch</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_switch_100080068.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>9 hei 14:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelejä 30/kpl</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/varsinais-suomi/Nintendo_switch_peleja_30_kpl_99959449.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>6 hei 12:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Saints Row: IV - Re-Elected</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Saints_Row__IV___Re_Elected_99815594.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>2 hei 10:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Nintendo Switch valmis paketti</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>350 €</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-savo/Nintendo_Switch_valmis_paketti_99811860.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>2 hei 07:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelejä</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_peleja_99727853.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>29 kes 13:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Pelit</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_Switch_Pelit_99647147.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>27 kes 11:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Vampyr (Switch)</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/lappi/Vampyr__Switch__99466545.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>20 kes 18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Nintendo switch labo 3</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>10 €</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Nintendo_switch_labo_3_99464052.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>20 kes 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Paljon pelejä halvalla</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr"/>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Paljon_peleja_halvalla_99452150.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>20 kes 13:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Mariocart Live Home circuit - Mario set</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>55 €</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/kymenlaakso/Mariocart_Live_Home_circuit___Mario_set_99174873.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>13 kes 13:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Nintendo Switch Olympic Games Tokyo 2020 peli</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>25 €</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch_Olympic_Games_Tokyo_2020_peli_96843755.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>17 huh 09:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Wii pelejä</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>8 €</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Wii_peleja_96278730.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>2 huh 15:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Disgaea 6 - Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>40 €</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/Disgaea_6___Nintendo_Switch_96246756.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>1 huh 19:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Nintendo Switch-peli Mario+Rabbids Kingdom battle</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-savo/Nintendo_Switch_peli_Mario_Rabbids_Kingdom_battle_95315309.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>9 maa 14:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Nintendo switch pelit</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>90 €</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_switch_pelit_94267230.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>7 hel 18:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Nintendo Switch -pelejä</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr"/>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Nintendo_Switch__peleja_92620665.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>27 jou 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Just Dance - pelejä eri konsoleille - Lue kokonaan</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr"/>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/Just_Dance___peleja_eri_konsoleille___Lue_kokonaan_91817069.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>2 jou 09:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Nintendo Switch -paketti</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>350 €</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/keski-suomi/Nintendo_Switch__paketti_88288807.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>2 syy 15:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>AI: The Somnium Files Special Agent Edition</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>120 €</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pirkanmaa/AI__The_Somnium_Files_Special_Agent_Edition_85934354.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>4 hei 10:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Peliohjaimen korjaus</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>20 €</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-savo/Peliohjaimen_korjaus_79269547.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>20 tam 13:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Korjataan Nintendo Switch Joy-con ohjaimia</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>19 €</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-savo/Korjataan_Nintendo_Switch_Joy_con_ohjaimia_77771544.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>11 jou 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>(UUSI) Switch: SNK Heroines: Tag Team Frenzy</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>30 €</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/_UUSI__Switch__SNK_Heroines__Tag_Team_Frenzy_72193981.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>24 hei 19:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>PC: Darksiders Genesis</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/PC__Darksiders_Genesis_69661758.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>18 tou 14:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>N64: Turok 2 - Seeds of Evil</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>50 €</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/uusimaa/N64__Turok_2___Seeds_of_Evil_67704606.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>1 huh 06:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Näytönsuoja Karkaistua lasia Nintendo Switch LITE</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>3 €</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-karjala/Naytonsuoja_Karkaistua_lasia_Nintendo_Switch_LITE_67610579.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>29 maa 12:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Näytönsuoja Karkaistua Lasia Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2 €</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/etela-karjala/Naytonsuoja_Karkaistua_Lasia_Nintendo_Switch_65988113.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>7 hel 18:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Starlink: Battle for Atlas</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>5 €</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Starlink__Battle_for_Atlas_55263461.htm?ca=18&amp;w=3</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>9 maa 10:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Starlink: Battle for Atlas sälää - Nintendo Switch</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>10 €</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>https://www.tori.fi/pohjois-pohjanmaa/Starlink__Battle_for_Atlas_salaa___Nintendo_Switch_54491130.htm?ca=18&amp;w=3&amp;last=1</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>9 hel 14:31</t>
         </is>
       </c>
     </row>
